--- a/Задание 6.xlsx
+++ b/Задание 6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\My-first-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>passed</t>
   </si>
@@ -479,9 +479,6 @@
 В строке "Адрес": "Страна" "Россия", "Город" "Великий Новгород", "Улица" "Батецкая", нажать кнопку "Сохранить";
 Нажать кнопку "Создать сообщество"
 </t>
-  </si>
-  <si>
-    <t>Пригласить друзей  в Сообещство</t>
   </si>
   <si>
     <t xml:space="preserve">Перейти на сайт vk.com;
@@ -947,6 +944,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -955,27 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1373,11 +1370,11 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1388,7 +1385,7 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="49.28515625" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
@@ -1407,43 +1404,43 @@
   <sheetData>
     <row r="1" spans="1:124" ht="27" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="52"/>
       <c r="K1" s="8"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="10"/>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="51" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="10"/>
-      <c r="P1" s="44"/>
+      <c r="P1" s="51"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="44"/>
+      <c r="R1" s="51"/>
       <c r="S1" s="10"/>
-      <c r="T1" s="44"/>
+      <c r="T1" s="51"/>
       <c r="U1" s="10"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -1453,29 +1450,29 @@
     </row>
     <row r="2" spans="1:124" ht="126.95" customHeight="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="44"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="10"/>
-      <c r="N2" s="44"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="44"/>
+      <c r="P2" s="51"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="44"/>
+      <c r="R2" s="51"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="44"/>
+      <c r="T2" s="51"/>
       <c r="U2" s="10"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -1505,7 +1502,9 @@
       <c r="I3" s="15"/>
       <c r="J3" s="14"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="6"/>
       <c r="O3" s="10"/>
@@ -1541,7 +1540,9 @@
       <c r="I4" s="21"/>
       <c r="J4" s="14"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="6"/>
       <c r="O4" s="10"/>
@@ -1577,7 +1578,9 @@
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="6"/>
       <c r="O5" s="10"/>
@@ -2600,13 +2603,13 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="14"/>
@@ -3268,12 +3271,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="G1:G2"/>
@@ -3281,6 +3278,12 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L7:L37 R7:R37 P7:P37 T7:T37 T3:T5 P3:P5 R3:R5 L3:L5 N3:N5 N7:N37">
